--- a/Wine_Quality/outputs/train_60_test_40/depth_6/wq_train_60_test_40_depth_6_report.xlsx
+++ b/Wine_Quality/outputs/train_60_test_40/depth_6/wq_train_60_test_40_depth_6_report.xlsx
@@ -458,58 +458,58 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>High quality</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.644927536231884</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01020408163265306</v>
+        <v>0.3483365949119374</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01923076923076923</v>
+        <v>0.4523506988564168</v>
       </c>
       <c r="E2" t="n">
-        <v>98</v>
+        <v>511</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Low quality</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8011844331641286</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9517587939698492</v>
+        <v>0.04081632653061224</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8700045934772623</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="E3" t="n">
-        <v>1990</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>Standard quality</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5938864628820961</v>
+        <v>0.8155045474231269</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2661448140900196</v>
+        <v>0.9462311557788945</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3675675675675676</v>
+        <v>0.8760176785298907</v>
       </c>
       <c r="E4" t="n">
-        <v>511</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="5">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7814544055405925</v>
+        <v>0.7945363601385148</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7814544055405925</v>
+        <v>0.7945363601385148</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7814544055405925</v>
+        <v>0.7945363601385148</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7814544055405925</v>
+        <v>0.7945363601385148</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5205791875709638</v>
+        <v>0.5820487897897656</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4093692298975073</v>
+        <v>0.4451280257404813</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4189343100918664</v>
+        <v>0.466598982938293</v>
       </c>
       <c r="E6" t="n">
         <v>2599</v>
@@ -557,13 +557,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7365010919056177</v>
+        <v>0.7619900039963506</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7814544055405925</v>
+        <v>0.7945363601385148</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7391384314857232</v>
+        <v>0.7623802952636057</v>
       </c>
       <c r="E7" t="n">
         <v>2599</v>

--- a/Wine_Quality/outputs/train_60_test_40/depth_6/wq_train_60_test_40_depth_6_report.xlsx
+++ b/Wine_Quality/outputs/train_60_test_40/depth_6/wq_train_60_test_40_depth_6_report.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.644927536231884</v>
+        <v>0.64</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3483365949119374</v>
+        <v>0.35</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4523506988564168</v>
+        <v>0.45</v>
       </c>
       <c r="E2" t="n">
         <v>511</v>
@@ -481,13 +481,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.29</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04081632653061224</v>
+        <v>0.04</v>
       </c>
       <c r="D3" t="n">
-        <v>0.07142857142857142</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E3" t="n">
         <v>98</v>
@@ -500,13 +500,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8155045474231269</v>
+        <v>0.82</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9462311557788945</v>
+        <v>0.95</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8760176785298907</v>
+        <v>0.88</v>
       </c>
       <c r="E4" t="n">
         <v>1990</v>
@@ -518,17 +518,13 @@
           <t>accuracy</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>0.7945363601385148</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.7945363601385148</v>
-      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>0.7945363601385148</v>
+        <v>0.79</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7945363601385148</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +534,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5820487897897656</v>
+        <v>0.58</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4451280257404813</v>
+        <v>0.45</v>
       </c>
       <c r="D6" t="n">
-        <v>0.466598982938293</v>
+        <v>0.47</v>
       </c>
       <c r="E6" t="n">
         <v>2599</v>
@@ -557,13 +553,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7619900039963506</v>
+        <v>0.76</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7945363601385148</v>
+        <v>0.79</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7623802952636057</v>
+        <v>0.76</v>
       </c>
       <c r="E7" t="n">
         <v>2599</v>
